--- a/Documentos/Planes de Trabajo/Plan de Trabajo Multi-seleccion de Clientes en Perfil de Empleados v3.xlsx
+++ b/Documentos/Planes de Trabajo/Plan de Trabajo Multi-seleccion de Clientes en Perfil de Empleados v3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
   <si>
     <t xml:space="preserve">Semana 0</t>
   </si>
@@ -197,7 +197,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +258,12 @@
         <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -300,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,7 +343,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,7 +411,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,7 +490,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
@@ -505,9 +515,9 @@
   <dimension ref="B1:BA28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6765" ySplit="0" topLeftCell="AA1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
-      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <pane xSplit="8765" ySplit="0" topLeftCell="AA1" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AA14" activeCellId="0" sqref="14:14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1530,8 +1540,12 @@
       </c>
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
+      <c r="Z14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="AB14" s="23"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -1574,6 +1588,8 @@
       <c r="T15" s="20"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
       <c r="AE15" s="24"/>
       <c r="AF15" s="24"/>
       <c r="AG15" s="20"/>
@@ -1964,25 +1980,25 @@
       <c r="BA22" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="29"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="30"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentos/Planes de Trabajo/Plan de Trabajo Multi-seleccion de Clientes en Perfil de Empleados v3.xlsx
+++ b/Documentos/Planes de Trabajo/Plan de Trabajo Multi-seleccion de Clientes en Perfil de Empleados v3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="37">
   <si>
     <t xml:space="preserve">Semana 0</t>
   </si>
@@ -515,9 +515,9 @@
   <dimension ref="B1:BA28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8765" ySplit="0" topLeftCell="AA1" activePane="topRight" state="split"/>
+      <pane xSplit="8103" ySplit="0" topLeftCell="A1" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AA14" activeCellId="0" sqref="14:14"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1388,7 +1388,7 @@
       <c r="BA11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="14" t="n">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1453,7 +1453,7 @@
       <c r="BA12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="14" t="n">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1509,10 +1509,10 @@
       <c r="BA13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="n">
+      <c r="B14" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="15"/>
@@ -1546,7 +1546,9 @@
       <c r="AA14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AB14" s="23"/>
+      <c r="AB14" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
       <c r="AE14" s="24"/>
@@ -1592,7 +1594,7 @@
       <c r="AD15" s="27"/>
       <c r="AE15" s="24"/>
       <c r="AF15" s="24"/>
-      <c r="AG15" s="20"/>
+      <c r="AG15" s="27"/>
       <c r="AH15" s="20"/>
       <c r="AL15" s="24"/>
       <c r="AM15" s="24"/>
@@ -1631,8 +1633,7 @@
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
       <c r="AA16" s="17"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="17"/>
+      <c r="AC16" s="23"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="24"/>
       <c r="AF16" s="24"/>

--- a/Documentos/Planes de Trabajo/Plan de Trabajo Multi-seleccion de Clientes en Perfil de Empleados v3.xlsx
+++ b/Documentos/Planes de Trabajo/Plan de Trabajo Multi-seleccion de Clientes en Perfil de Empleados v3.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="B1:BA28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8103" ySplit="0" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <pane xSplit="7484" ySplit="0" topLeftCell="A1" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
